--- a/data/trans_orig/P0802-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P0802-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>598509</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>581063</v>
+        <v>579389</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>614123</v>
+        <v>614909</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8623903245276083</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8372526930550903</v>
+        <v>0.8348402410305057</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8848885412257579</v>
+        <v>0.8860208313564668</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>535</v>
@@ -765,19 +765,19 @@
         <v>528673</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>505890</v>
+        <v>507581</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>548952</v>
+        <v>550144</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7680283683769522</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7349310141858879</v>
+        <v>0.7373867785095809</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7974887057309901</v>
+        <v>0.7992199774006131</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1120</v>
@@ -786,19 +786,19 @@
         <v>1127182</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1098134</v>
+        <v>1096780</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1152805</v>
+        <v>1152004</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.815402563472591</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7943891833651613</v>
+        <v>0.7934092209612622</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8339379965246417</v>
+        <v>0.8333584472453561</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>70722</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>57655</v>
+        <v>56457</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>88956</v>
+        <v>86646</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.101903726380967</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08307456848633783</v>
+        <v>0.08134816864339461</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1281771582235436</v>
+        <v>0.1248473000889062</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>129</v>
@@ -836,19 +836,19 @@
         <v>126133</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>107515</v>
+        <v>106546</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>146365</v>
+        <v>147146</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1832397904809256</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1561926336664226</v>
+        <v>0.1547847638840592</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2126319736364945</v>
+        <v>0.2137664440302943</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>202</v>
@@ -857,19 +857,19 @@
         <v>196856</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>174209</v>
+        <v>174094</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>224449</v>
+        <v>222727</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1424052134313481</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1260227022562115</v>
+        <v>0.1259396946446039</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1623662945984819</v>
+        <v>0.1611204945492833</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>24780</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16593</v>
+        <v>15619</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>36368</v>
+        <v>35879</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03570594909142465</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02390951106803746</v>
+        <v>0.02250608255566697</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05240322223101514</v>
+        <v>0.05169756501388148</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -907,19 +907,19 @@
         <v>33545</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22408</v>
+        <v>23378</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45828</v>
+        <v>47095</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04873184114212222</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03255291939373193</v>
+        <v>0.03396242896993418</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06657659242476645</v>
+        <v>0.06841781860231455</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>57</v>
@@ -928,19 +928,19 @@
         <v>58325</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>44862</v>
+        <v>44301</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>74310</v>
+        <v>74127</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0421922230960609</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03245289588522755</v>
+        <v>0.03204716931000798</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0537555824940159</v>
+        <v>0.05362343981303162</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>837187</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>815343</v>
+        <v>815679</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>855561</v>
+        <v>856025</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8704376501062897</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8477260954478707</v>
+        <v>0.8480756207161858</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8895409860238412</v>
+        <v>0.8900243717274623</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>705</v>
@@ -1053,19 +1053,19 @@
         <v>748086</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>719970</v>
+        <v>719367</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>773482</v>
+        <v>771573</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7725024228403224</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7434683557022972</v>
+        <v>0.7428458959359011</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7987277282103507</v>
+        <v>0.7967556598447634</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1479</v>
@@ -1074,19 +1074,19 @@
         <v>1585273</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1553103</v>
+        <v>1550917</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1617987</v>
+        <v>1618742</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8213027754505858</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8046360505690119</v>
+        <v>0.8035035250590875</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8382513723357521</v>
+        <v>0.8386427952092208</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>91025</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>74401</v>
+        <v>74696</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>110619</v>
+        <v>111427</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09464027028112774</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07735614112779622</v>
+        <v>0.07766280205931959</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1150127455089727</v>
+        <v>0.1158529246696884</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>160</v>
@@ -1124,19 +1124,19 @@
         <v>172827</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>150346</v>
+        <v>148525</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>199052</v>
+        <v>198016</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1784682136997931</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1552533985785358</v>
+        <v>0.1533721651943372</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.205549058011572</v>
+        <v>0.2044787141144872</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>250</v>
@@ -1145,19 +1145,19 @@
         <v>263852</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>233632</v>
+        <v>233734</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>295337</v>
+        <v>296846</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1366974095506955</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1210408775418459</v>
+        <v>0.1210938156031844</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1530090519710533</v>
+        <v>0.1537906348004824</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>33588</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22690</v>
+        <v>23031</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45568</v>
+        <v>44810</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03492207961258259</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02359093636817693</v>
+        <v>0.02394526690845334</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04737784040952958</v>
+        <v>0.04658986923484174</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -1195,19 +1195,19 @@
         <v>47480</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35015</v>
+        <v>34904</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62675</v>
+        <v>64942</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04902936345988448</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03615746668861604</v>
+        <v>0.03604322818573729</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06472015581591706</v>
+        <v>0.06706185528524658</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>75</v>
@@ -1216,19 +1216,19 @@
         <v>81068</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64901</v>
+        <v>64094</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>100024</v>
+        <v>101602</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04199981499871865</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03362424374836578</v>
+        <v>0.03320579626774697</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05182076209408541</v>
+        <v>0.05263801980446906</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>573338</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>552073</v>
+        <v>554479</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>591565</v>
+        <v>592032</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8449970166168407</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8136567505292149</v>
+        <v>0.8172025487429798</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8718597161380572</v>
+        <v>0.8725487454227315</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>523</v>
@@ -1341,19 +1341,19 @@
         <v>513828</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>490448</v>
+        <v>492691</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>536447</v>
+        <v>535798</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.751385720588148</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.71719592743603</v>
+        <v>0.720475279973055</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7844609819076551</v>
+        <v>0.7835123118259257</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1061</v>
@@ -1362,19 +1362,19 @@
         <v>1087166</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1056965</v>
+        <v>1056319</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1115255</v>
+        <v>1113286</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7980081752994039</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7758396056829486</v>
+        <v>0.775365655227419</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8186258527378671</v>
+        <v>0.817180846435971</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>79435</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64084</v>
+        <v>61608</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>97631</v>
+        <v>99502</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1170726288657992</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09444864671217987</v>
+        <v>0.09079944898015933</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1438910520492513</v>
+        <v>0.1466484456723461</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>114</v>
@@ -1412,19 +1412,19 @@
         <v>110295</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>91598</v>
+        <v>92073</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>130311</v>
+        <v>128485</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1612876481040179</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1339467818607511</v>
+        <v>0.1346404395191147</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1905572824411691</v>
+        <v>0.1878872790605235</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>191</v>
@@ -1433,19 +1433,19 @@
         <v>189730</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>163978</v>
+        <v>165521</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>216654</v>
+        <v>215646</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1392666653867257</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1203642943954054</v>
+        <v>0.1214965061122907</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1590293986313896</v>
+        <v>0.1582897832673699</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>25736</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17014</v>
+        <v>17022</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37468</v>
+        <v>36138</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03793035451736021</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02507559756716636</v>
+        <v>0.02508731330281534</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05522165976001969</v>
+        <v>0.05326075765178193</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>59</v>
@@ -1483,19 +1483,19 @@
         <v>59718</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>46077</v>
+        <v>46349</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>75020</v>
+        <v>76698</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08732663130783402</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06737902243931654</v>
+        <v>0.06777744232502195</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1097041120769709</v>
+        <v>0.1121570966353415</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>85</v>
@@ -1504,19 +1504,19 @@
         <v>85454</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>70115</v>
+        <v>68579</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>106210</v>
+        <v>103525</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06272515931387032</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05146606554554445</v>
+        <v>0.05033884370482448</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07796103958539942</v>
+        <v>0.07599013461627005</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>811193</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>790714</v>
+        <v>790772</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>830040</v>
+        <v>830455</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8609362866353349</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8392011255354641</v>
+        <v>0.8392626386437192</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8809386971592458</v>
+        <v>0.8813793683863453</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>775</v>
@@ -1629,19 +1629,19 @@
         <v>803012</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>775860</v>
+        <v>770470</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>831133</v>
+        <v>827360</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7731588785362731</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7470158571752198</v>
+        <v>0.7418267230880514</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8002344943564166</v>
+        <v>0.7966015443689444</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1625</v>
@@ -1650,19 +1650,19 @@
         <v>1614205</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1578286</v>
+        <v>1579790</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1648887</v>
+        <v>1653544</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8149119024283591</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7967782940559617</v>
+        <v>0.797538031740579</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8324205452983315</v>
+        <v>0.8347713794099839</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>94128</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>78081</v>
+        <v>78882</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>113413</v>
+        <v>112612</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09990036377139863</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08286874800272359</v>
+        <v>0.08371953510208673</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1203675968304473</v>
+        <v>0.1195177818325241</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>153</v>
@@ -1700,19 +1700,19 @@
         <v>162818</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>139589</v>
+        <v>141472</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>188650</v>
+        <v>188412</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1567648883237812</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1344000328696917</v>
+        <v>0.1362129790289418</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1816371009402078</v>
+        <v>0.1814074945067096</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>257</v>
@@ -1721,19 +1721,19 @@
         <v>256946</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>229248</v>
+        <v>223607</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>287337</v>
+        <v>289493</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1297161760905806</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1157330993740063</v>
+        <v>0.1128855094850341</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1450584754110614</v>
+        <v>0.1461471116941603</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>36901</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26307</v>
+        <v>27179</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>49750</v>
+        <v>50427</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03916334959326638</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02792043495043931</v>
+        <v>0.02884584706945722</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0528011278482169</v>
+        <v>0.05351890161833021</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>69</v>
@@ -1771,19 +1771,19 @@
         <v>72782</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>57072</v>
+        <v>56687</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>89920</v>
+        <v>90673</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07007623313994578</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05495056555762694</v>
+        <v>0.05457982455458203</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0865766389567286</v>
+        <v>0.08730161388186743</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>109</v>
@@ -1792,19 +1792,19 @@
         <v>109683</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>91936</v>
+        <v>91710</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>134130</v>
+        <v>132013</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05537192148106038</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04641283217280622</v>
+        <v>0.04629849756927253</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06771406986187734</v>
+        <v>0.06664525613248239</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>2820227</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2782043</v>
+        <v>2776907</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2859184</v>
+        <v>2858080</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8607325945129319</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8490786432408671</v>
+        <v>0.8475111739101719</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.872622210900542</v>
+        <v>0.8722850801915306</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2538</v>
@@ -1917,19 +1917,19 @@
         <v>2593599</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2546799</v>
+        <v>2543258</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2643126</v>
+        <v>2639195</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7675194683220637</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7536697739065173</v>
+        <v>0.7526219458129769</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7821758962741636</v>
+        <v>0.7810124388057775</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5285</v>
@@ -1938,19 +1938,19 @@
         <v>5413828</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5348341</v>
+        <v>5350564</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5473463</v>
+        <v>5473740</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8134072008924328</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8035680599040773</v>
+        <v>0.8039020119138419</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8223672207040384</v>
+        <v>0.8224088606788151</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>335311</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>302079</v>
+        <v>303507</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>370527</v>
+        <v>372095</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1023366923051532</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09219432088312927</v>
+        <v>0.09263013196652013</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1130847136292031</v>
+        <v>0.1135633804732264</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>556</v>
@@ -1988,19 +1988,19 @@
         <v>572074</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>530593</v>
+        <v>530727</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>614249</v>
+        <v>617407</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1692927825703575</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1570175986518373</v>
+        <v>0.1570570404962851</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1817737523999029</v>
+        <v>0.1827081504874692</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>900</v>
@@ -2009,19 +2009,19 @@
         <v>907384</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>854667</v>
+        <v>854996</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>962904</v>
+        <v>963915</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1363310819000479</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.128410509597045</v>
+        <v>0.1284599359425139</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1446726238186077</v>
+        <v>0.1448245419183362</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>121005</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>100627</v>
+        <v>100590</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>144209</v>
+        <v>145279</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03693071318191486</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03071145832284695</v>
+        <v>0.03069993653624647</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04401252792700989</v>
+        <v>0.04433909061627581</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>203</v>
@@ -2059,19 +2059,19 @@
         <v>213524</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>184265</v>
+        <v>185663</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>244666</v>
+        <v>242527</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06318774910757882</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05452913585807757</v>
+        <v>0.05494279247666894</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07240373657635334</v>
+        <v>0.0717707056896239</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>326</v>
@@ -2080,19 +2080,19 @@
         <v>334529</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>297347</v>
+        <v>302584</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>370959</v>
+        <v>372511</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05026171720751924</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04467523496622976</v>
+        <v>0.04546213280088623</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05573523062472669</v>
+        <v>0.05596830889805599</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>588941</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>566105</v>
+        <v>567860</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>607157</v>
+        <v>611671</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8371947951039537</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8047329979885941</v>
+        <v>0.8072274844040418</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8630898596673612</v>
+        <v>0.8695071890987883</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>476</v>
@@ -2445,19 +2445,19 @@
         <v>509775</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>484850</v>
+        <v>485251</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>532999</v>
+        <v>532467</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7313320303935347</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6955748716354093</v>
+        <v>0.6961496958490367</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7646492448579906</v>
+        <v>0.763887083686115</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1042</v>
@@ -2466,19 +2466,19 @@
         <v>1098716</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1068277</v>
+        <v>1065772</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1131761</v>
+        <v>1127725</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7845060124305561</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7627725390962502</v>
+        <v>0.7609832669716535</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.808101068350962</v>
+        <v>0.80521910219858</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>77994</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>63141</v>
+        <v>60734</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98154</v>
+        <v>97653</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1108708591935361</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08975727497716819</v>
+        <v>0.08633486270582848</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1395291367743373</v>
+        <v>0.138815900828282</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>105</v>
@@ -2516,19 +2516,19 @@
         <v>113501</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>94018</v>
+        <v>93633</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>136409</v>
+        <v>133958</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1628301798042821</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1348792739434545</v>
+        <v>0.1343274197682649</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1956942756810079</v>
+        <v>0.1921789700020401</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>179</v>
@@ -2537,19 +2537,19 @@
         <v>191495</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>165425</v>
+        <v>168574</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>217336</v>
+        <v>220518</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1367314472766616</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1181172284485113</v>
+        <v>0.1203654965529349</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1551821857936791</v>
+        <v>0.1574543817210416</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>36534</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25817</v>
+        <v>25622</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>50871</v>
+        <v>51762</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05193434570251033</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03669950518916161</v>
+        <v>0.03642238721361876</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07231482649851562</v>
+        <v>0.07358133924610936</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>69</v>
@@ -2587,19 +2587,19 @@
         <v>73774</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>59280</v>
+        <v>57705</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>91142</v>
+        <v>92402</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1058377898021832</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08504342223753722</v>
+        <v>0.08278463540271989</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1307533014154631</v>
+        <v>0.1325608626376986</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>103</v>
@@ -2608,19 +2608,19 @@
         <v>110308</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>90967</v>
+        <v>90739</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>131698</v>
+        <v>133300</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0787625402927823</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0649522417576097</v>
+        <v>0.06478944272202322</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09403542502344153</v>
+        <v>0.09517906611323079</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>850650</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>825089</v>
+        <v>823311</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>874619</v>
+        <v>873734</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8356522895623432</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8105423608783336</v>
+        <v>0.8087955781498677</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8591991063612003</v>
+        <v>0.8583297956947417</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>700</v>
@@ -2733,19 +2733,19 @@
         <v>769676</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>740556</v>
+        <v>737164</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>800309</v>
+        <v>796369</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7464628326482705</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7182215223915203</v>
+        <v>0.7149318223184616</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7761726083331348</v>
+        <v>0.7723514997567512</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1485</v>
@@ -2754,19 +2754,19 @@
         <v>1620325</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1581190</v>
+        <v>1583273</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1656159</v>
+        <v>1659948</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7907713777176452</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7716718648216505</v>
+        <v>0.772688436674713</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8082593137838044</v>
+        <v>0.8101083418110884</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>111976</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>92180</v>
+        <v>93305</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>135163</v>
+        <v>134616</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1100022672170247</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09055502278828202</v>
+        <v>0.09165988568946047</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1327801650167609</v>
+        <v>0.1322428402874322</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>140</v>
@@ -2804,19 +2804,19 @@
         <v>152760</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>129520</v>
+        <v>129877</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>176716</v>
+        <v>177991</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.148153177911959</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1256138503931004</v>
+        <v>0.1259600027766978</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1713861126859207</v>
+        <v>0.1726232467933563</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>242</v>
@@ -2825,19 +2825,19 @@
         <v>264737</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>235920</v>
+        <v>232524</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>296234</v>
+        <v>293239</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1292001378952139</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1151366027448557</v>
+        <v>0.1134790834226286</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1445716514326402</v>
+        <v>0.1431099328702898</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>55321</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42715</v>
+        <v>41042</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73429</v>
+        <v>70856</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05434544322063219</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0419618734319706</v>
+        <v>0.04031796592706818</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07213453667357042</v>
+        <v>0.06960672682462506</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>99</v>
@@ -2875,19 +2875,19 @@
         <v>108661</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>87974</v>
+        <v>88589</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>129136</v>
+        <v>129671</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1053839894397705</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0853212402691306</v>
+        <v>0.08591770193707732</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1252414144478392</v>
+        <v>0.125760488928733</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>148</v>
@@ -2896,19 +2896,19 @@
         <v>163982</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>139358</v>
+        <v>138594</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>190109</v>
+        <v>188011</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.080028484387141</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06801099650259634</v>
+        <v>0.06763819010059202</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09277932226163486</v>
+        <v>0.09175533727015021</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>662733</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>640165</v>
+        <v>640486</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>680899</v>
+        <v>679246</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8747524863803455</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8449646539669297</v>
+        <v>0.8453888535530609</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8987306552145065</v>
+        <v>0.8965490017877805</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>542</v>
@@ -3021,19 +3021,19 @@
         <v>597447</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>571638</v>
+        <v>572231</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>621692</v>
+        <v>620147</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7687423285908463</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.735534183783772</v>
+        <v>0.7362977915799083</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7999397435028354</v>
+        <v>0.7979515617292673</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1148</v>
@@ -3042,19 +3042,19 @@
         <v>1260179</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1224641</v>
+        <v>1227081</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1289247</v>
+        <v>1290991</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8210722134676679</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7979173086060642</v>
+        <v>0.7995070022602625</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8400115619096689</v>
+        <v>0.8411476135418781</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>62404</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48575</v>
+        <v>48514</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>79716</v>
+        <v>82342</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08236867590750759</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06411480329477717</v>
+        <v>0.06403502671373096</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1052180666512288</v>
+        <v>0.1086849961712248</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>99</v>
@@ -3092,19 +3092,19 @@
         <v>106427</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>85944</v>
+        <v>87939</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>125768</v>
+        <v>125467</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1369411895393599</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.110585518967217</v>
+        <v>0.113152044796977</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1618279264521224</v>
+        <v>0.1614403072657269</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>156</v>
@@ -3113,19 +3113,19 @@
         <v>168832</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>143192</v>
+        <v>144221</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>195863</v>
+        <v>195501</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1100025129507993</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09329684913683248</v>
+        <v>0.09396738967745998</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.127615158030442</v>
+        <v>0.1273788596941451</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>32486</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21243</v>
+        <v>21741</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47729</v>
+        <v>47778</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04287883771214688</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02803949167048132</v>
+        <v>0.02869680960361887</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06299812714001461</v>
+        <v>0.06306362742894946</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>64</v>
@@ -3163,19 +3163,19 @@
         <v>73300</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>57552</v>
+        <v>57269</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>92489</v>
+        <v>92599</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09431648186979372</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07405231808102725</v>
+        <v>0.07368927358279824</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1190070429420037</v>
+        <v>0.1191489107343047</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>90</v>
@@ -3184,19 +3184,19 @@
         <v>105786</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>86063</v>
+        <v>85821</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>129856</v>
+        <v>130514</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0689252735815329</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05607448925752027</v>
+        <v>0.05591670645617563</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08460767274232016</v>
+        <v>0.08503646757525386</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>787771</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>764754</v>
+        <v>762930</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>810668</v>
+        <v>810310</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.834664195691342</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8102774246630621</v>
+        <v>0.8083447771522621</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8589236552902944</v>
+        <v>0.858544444520565</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>732</v>
@@ -3309,19 +3309,19 @@
         <v>764610</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>734259</v>
+        <v>732789</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>791717</v>
+        <v>790832</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7268840584785996</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6980303198377349</v>
+        <v>0.6966328822530549</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7526533011911214</v>
+        <v>0.7518118901348282</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1497</v>
@@ -3330,19 +3330,19 @@
         <v>1552381</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1519057</v>
+        <v>1514784</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1595044</v>
+        <v>1588996</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7778555891106292</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7611579855491121</v>
+        <v>0.7590167208515767</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7992330075516424</v>
+        <v>0.7962023884108931</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>106877</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>87623</v>
+        <v>88600</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>127646</v>
+        <v>128590</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1132389700529487</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09283884752814053</v>
+        <v>0.09387419075118671</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1352444535782951</v>
+        <v>0.1362439906959916</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>183</v>
@@ -3380,19 +3380,19 @@
         <v>195707</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>168590</v>
+        <v>171862</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>221698</v>
+        <v>224692</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1860510864122785</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1602716428167587</v>
+        <v>0.1633821220314715</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.210759833510477</v>
+        <v>0.2136056725113732</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>280</v>
@@ -3401,19 +3401,19 @@
         <v>302584</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>267539</v>
+        <v>269518</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>333532</v>
+        <v>335663</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1516166802650045</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1340565563612284</v>
+        <v>0.1350478551174705</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1671238394997591</v>
+        <v>0.1681916925611536</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>49170</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37410</v>
+        <v>36062</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>64895</v>
+        <v>65211</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05209683425570939</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03963659502247353</v>
+        <v>0.0382082085717312</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06875839328534479</v>
+        <v>0.06909326042712588</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>88</v>
@@ -3451,19 +3451,19 @@
         <v>91584</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>75441</v>
+        <v>74380</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>113499</v>
+        <v>111887</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08706485510912187</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07171851621696947</v>
+        <v>0.07071023789701783</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1078990691144004</v>
+        <v>0.1063667427116957</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>133</v>
@@ -3472,19 +3472,19 @@
         <v>140754</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>118183</v>
+        <v>120763</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>163812</v>
+        <v>165352</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07052773062436624</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05921843410390295</v>
+        <v>0.06051127165710726</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08208152696246225</v>
+        <v>0.08285316756013833</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>2890095</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2839362</v>
+        <v>2844867</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2930323</v>
+        <v>2934924</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8443513784317306</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8295297185078827</v>
+        <v>0.8311378268356843</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.856104136195989</v>
+        <v>0.8574484261680407</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2450</v>
@@ -3597,19 +3597,19 @@
         <v>2641507</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2584398</v>
+        <v>2587145</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2691586</v>
+        <v>2693581</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7425758628806821</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7265213026893117</v>
+        <v>0.7272935880794191</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7566538815760255</v>
+        <v>0.7572148888348926</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5172</v>
@@ -3618,19 +3618,19 @@
         <v>5531602</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5460491</v>
+        <v>5458446</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5600391</v>
+        <v>5600398</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7924840499506303</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7822963030503671</v>
+        <v>0.7820033334956383</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8023390240246184</v>
+        <v>0.8023400758083193</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>359252</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>326360</v>
+        <v>325830</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>401098</v>
+        <v>399047</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1049567856783047</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0953473225713509</v>
+        <v>0.09519229188474181</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1171821397780042</v>
+        <v>0.1165830670688699</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>527</v>
@@ -3668,19 +3668,19 @@
         <v>568396</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>525935</v>
+        <v>521916</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>614640</v>
+        <v>611462</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1597863540117364</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.147850051398077</v>
+        <v>0.1467201589052212</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1727864724394116</v>
+        <v>0.1718932588259378</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>857</v>
@@ -3689,19 +3689,19 @@
         <v>927648</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>867563</v>
+        <v>871267</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>986821</v>
+        <v>987594</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1328992944028183</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1242912022696451</v>
+        <v>0.124821860789994</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1413767168770523</v>
+        <v>0.1414875067593525</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>173511</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>148052</v>
+        <v>147218</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>202711</v>
+        <v>204417</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05069183588996463</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04325396004952008</v>
+        <v>0.04301032426725687</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05922276391902105</v>
+        <v>0.05972123019826233</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>320</v>
@@ -3739,19 +3739,19 @@
         <v>347319</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>313163</v>
+        <v>312941</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>385611</v>
+        <v>388070</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09763778310758152</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08803581026373984</v>
+        <v>0.08797344415561011</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.108402250726342</v>
+        <v>0.1090935101832747</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>474</v>
@@ -3760,19 +3760,19 @@
         <v>520830</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>478425</v>
+        <v>478854</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>569106</v>
+        <v>567199</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07461665564655146</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06854146455977012</v>
+        <v>0.06860291830463881</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08153287012460592</v>
+        <v>0.08125967647363407</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>569902</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>548341</v>
+        <v>550739</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>585911</v>
+        <v>586801</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.844549217309792</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8125983592243562</v>
+        <v>0.8161518719740494</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8682731987815786</v>
+        <v>0.8695931661395117</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>508</v>
@@ -4125,19 +4125,19 @@
         <v>502415</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>478020</v>
+        <v>477338</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>524897</v>
+        <v>524040</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7467085195272012</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7104518622610331</v>
+        <v>0.7094391375320336</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7801220266079036</v>
+        <v>0.7788494400305432</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1054</v>
@@ -4146,19 +4146,19 @@
         <v>1072316</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1041073</v>
+        <v>1041869</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1101549</v>
+        <v>1102613</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7957000543218637</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.772516278101363</v>
+        <v>0.7731065996493692</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8173919817813992</v>
+        <v>0.8181810011702801</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>72574</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>57999</v>
+        <v>57681</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>90567</v>
+        <v>89784</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1075489184925036</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08595023553475174</v>
+        <v>0.08547842575291172</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1342124819089263</v>
+        <v>0.1330522047569988</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>98</v>
@@ -4196,19 +4196,19 @@
         <v>103500</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>84947</v>
+        <v>86061</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>124219</v>
+        <v>124229</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1538264404882456</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1262521480400179</v>
+        <v>0.127907159661348</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1846196261871182</v>
+        <v>0.1846344695186795</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>170</v>
@@ -4217,19 +4217,19 @@
         <v>176074</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>152430</v>
+        <v>153280</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>201807</v>
+        <v>201280</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1306540093788206</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1131085836035823</v>
+        <v>0.1137393935849471</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1497487516175484</v>
+        <v>0.1493571437536201</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>32324</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22858</v>
+        <v>23141</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44672</v>
+        <v>46208</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04790186419770442</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03387429672604134</v>
+        <v>0.03429336571956654</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06620004966062948</v>
+        <v>0.06847588371836261</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>60</v>
@@ -4267,19 +4267,19 @@
         <v>66924</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>52152</v>
+        <v>52263</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>85543</v>
+        <v>84723</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09946503998455325</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07750965169892401</v>
+        <v>0.07767488747006664</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.127136846422572</v>
+        <v>0.125918788960742</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>94</v>
@@ -4288,19 +4288,19 @@
         <v>99248</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>81937</v>
+        <v>80450</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>120349</v>
+        <v>121318</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07364593629931568</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06080006929461518</v>
+        <v>0.05969714337098707</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08930370378398235</v>
+        <v>0.09002274512480055</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>876008</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>851321</v>
+        <v>853693</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>898721</v>
+        <v>897093</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8567893861303472</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8326441718758312</v>
+        <v>0.8349634359637993</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8790044240069809</v>
+        <v>0.8774122070087467</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>762</v>
@@ -4413,19 +4413,19 @@
         <v>790167</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>759607</v>
+        <v>759587</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>817895</v>
+        <v>815866</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7576536323241014</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7283508342772447</v>
+        <v>0.7283322239689576</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7842405516536294</v>
+        <v>0.7822958246206489</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1567</v>
@@ -4434,19 +4434,19 @@
         <v>1666175</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1630937</v>
+        <v>1625467</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1705359</v>
+        <v>1701801</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8067299447409818</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7896684063414299</v>
+        <v>0.7870199955200651</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8257021816822957</v>
+        <v>0.8239795655704086</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>105435</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>87453</v>
+        <v>86083</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>127649</v>
+        <v>125674</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1031218252905676</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08553398133624897</v>
+        <v>0.08419440204867337</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1248481241307001</v>
+        <v>0.1229166798255063</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>138</v>
@@ -4484,19 +4484,19 @@
         <v>160081</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>136028</v>
+        <v>135546</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>189303</v>
+        <v>187094</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1534943235140214</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1304303797605426</v>
+        <v>0.129968261811576</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1815134217872167</v>
+        <v>0.1793956605997871</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>243</v>
@@ -4505,19 +4505,19 @@
         <v>265516</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>233664</v>
+        <v>237245</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>297804</v>
+        <v>297113</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1285578463590232</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1131354112600383</v>
+        <v>0.1148695931203344</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.14419079443926</v>
+        <v>0.1438563701276942</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>40988</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28797</v>
+        <v>29448</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54726</v>
+        <v>54450</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04008878857908522</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.028164871520193</v>
+        <v>0.02880151418383102</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05352581064784184</v>
+        <v>0.05325514168951961</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>77</v>
@@ -4555,19 +4555,19 @@
         <v>92665</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74728</v>
+        <v>73549</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>115517</v>
+        <v>114428</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0888520441618772</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07165349324868793</v>
+        <v>0.07052312823917763</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1107639858059377</v>
+        <v>0.1097192942820133</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>118</v>
@@ -4576,19 +4576,19 @@
         <v>133653</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>112064</v>
+        <v>110356</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>158119</v>
+        <v>157601</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06471220889999499</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05425947002666474</v>
+        <v>0.05343220072723401</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07655797536420872</v>
+        <v>0.07630742789845861</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>653527</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>632254</v>
+        <v>632532</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>673289</v>
+        <v>672473</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8604116375829308</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8324044910562062</v>
+        <v>0.8327698227386476</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8864290869305098</v>
+        <v>0.8853554416503865</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>589</v>
@@ -4701,19 +4701,19 @@
         <v>616183</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>588939</v>
+        <v>591577</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>637960</v>
+        <v>640079</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7849352177949632</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7502303081647318</v>
+        <v>0.7535909069832561</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8126765397411144</v>
+        <v>0.8153763910506505</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1186</v>
@@ -4722,19 +4722,19 @@
         <v>1269710</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1235423</v>
+        <v>1237337</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1298921</v>
+        <v>1300634</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8220513986091668</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7998530303098125</v>
+        <v>0.801091865087021</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8409631841004453</v>
+        <v>0.842072420039187</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>76189</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58972</v>
+        <v>59119</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>95289</v>
+        <v>93896</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1003078496760494</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07764037379504071</v>
+        <v>0.0778343559398432</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1254538762097566</v>
+        <v>0.1236202349037092</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>93</v>
@@ -4772,19 +4772,19 @@
         <v>105917</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89000</v>
+        <v>87720</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>128095</v>
+        <v>126960</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1349245256157101</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1133742242422397</v>
+        <v>0.1117434452694683</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1631754962508931</v>
+        <v>0.1617306887910639</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>162</v>
@@ -4793,19 +4793,19 @@
         <v>182106</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>158999</v>
+        <v>156566</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>210135</v>
+        <v>208127</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1179014764703933</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1029409658665359</v>
+        <v>0.1013660846192331</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1360481224252173</v>
+        <v>0.1347482091350738</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>29836</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19817</v>
+        <v>21068</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42069</v>
+        <v>44266</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03928051274101982</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02609088080900177</v>
+        <v>0.02773725691183742</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05538609666981049</v>
+        <v>0.05827872673820882</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>54</v>
@@ -4843,19 +4843,19 @@
         <v>62911</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49919</v>
+        <v>47384</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81455</v>
+        <v>78889</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08014025658932675</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06359055991563899</v>
+        <v>0.06036101078834567</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1037628481999412</v>
+        <v>0.1004936392255872</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>84</v>
@@ -4864,19 +4864,19 @@
         <v>92747</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>75054</v>
+        <v>74792</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>113982</v>
+        <v>115155</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06004712492044</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04859234242534551</v>
+        <v>0.04842251217104145</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07379537931564201</v>
+        <v>0.07455502049347607</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>802932</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>779997</v>
+        <v>779393</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>824138</v>
+        <v>821755</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8563995761684887</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8319370407197823</v>
+        <v>0.8312936433181809</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8790180473513413</v>
+        <v>0.8764756242241987</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>779</v>
@@ -4989,19 +4989,19 @@
         <v>827106</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>796619</v>
+        <v>799318</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>854452</v>
+        <v>857682</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7924149750716482</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7632062493103262</v>
+        <v>0.7657924957718737</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8186136683399469</v>
+        <v>0.8217088997671549</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1574</v>
@@ -5010,19 +5010,19 @@
         <v>1630038</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1592493</v>
+        <v>1592910</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1664162</v>
+        <v>1664165</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8226922966921165</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8037431936436849</v>
+        <v>0.803953418916126</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8399150969065676</v>
+        <v>0.8399162742879894</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>84317</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>68214</v>
+        <v>69551</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>102940</v>
+        <v>104546</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08993215442027841</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07275643117797392</v>
+        <v>0.07418232810900093</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1097946963168478</v>
+        <v>0.1115082597624163</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>106</v>
@@ -5060,19 +5060,19 @@
         <v>123644</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>103151</v>
+        <v>102652</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>147442</v>
+        <v>149929</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1184584199627382</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09882414624892549</v>
+        <v>0.09834694270876508</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1412578867401455</v>
+        <v>0.1436410181753694</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>193</v>
@@ -5081,19 +5081,19 @@
         <v>207962</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>180484</v>
+        <v>177093</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>238268</v>
+        <v>236327</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1049598765373798</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09109183368040258</v>
+        <v>0.08938016224188486</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1202555879377555</v>
+        <v>0.1192757583746601</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>50318</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>36315</v>
+        <v>38122</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>64230</v>
+        <v>65856</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05366826941123291</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03873333332289519</v>
+        <v>0.04066082117723973</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06850754235858715</v>
+        <v>0.07024125860203558</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>74</v>
@@ -5131,19 +5131,19 @@
         <v>93028</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>74282</v>
+        <v>75668</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>114700</v>
+        <v>115064</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08912660496561367</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07116683776367345</v>
+        <v>0.07249468690442161</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1098894823768329</v>
+        <v>0.1102383149372505</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>124</v>
@@ -5152,19 +5152,19 @@
         <v>143346</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>121385</v>
+        <v>118977</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>169554</v>
+        <v>169703</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07234782677050376</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06126415723848367</v>
+        <v>0.06004842398329297</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08557513806625719</v>
+        <v>0.08565012957950532</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>2902369</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2860420</v>
+        <v>2862299</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2939974</v>
+        <v>2945289</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8550589079546544</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8427003764702868</v>
+        <v>0.8432539272868561</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8661376227914527</v>
+        <v>0.867703321059848</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2638</v>
@@ -5277,19 +5277,19 @@
         <v>2735870</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2680313</v>
+        <v>2680741</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2785981</v>
+        <v>2787744</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7718543966495656</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7561804124383764</v>
+        <v>0.7563011812251251</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.78599191134194</v>
+        <v>0.7864892547902586</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5381</v>
@@ -5298,19 +5298,19 @@
         <v>5638240</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5561992</v>
+        <v>5574156</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5707602</v>
+        <v>5699500</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8125561754888548</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8015677803613322</v>
+        <v>0.8033206914231311</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8225523288290474</v>
+        <v>0.8213847627301901</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>338515</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>305515</v>
+        <v>301612</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>372894</v>
+        <v>369463</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09972908200922199</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0900068734206806</v>
+        <v>0.08885718730308217</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1098571376348158</v>
+        <v>0.1088463657783749</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>435</v>
@@ -5348,19 +5348,19 @@
         <v>493143</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>451000</v>
+        <v>450519</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>535709</v>
+        <v>536279</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1391275097624734</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1272378499372078</v>
+        <v>0.1271021192325514</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.15113644720227</v>
+        <v>0.1512971986689866</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>768</v>
@@ -5369,19 +5369,19 @@
         <v>831659</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>772408</v>
+        <v>782435</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>889318</v>
+        <v>890430</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1198546834712567</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1113157445237743</v>
+        <v>0.1127607649094657</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1281642044705454</v>
+        <v>0.1283245410275888</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>153465</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>132013</v>
+        <v>130121</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>177799</v>
+        <v>178451</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04521201003612353</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03889201442796119</v>
+        <v>0.03833458155302107</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05238076784380474</v>
+        <v>0.05257305512177721</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>265</v>
@@ -5419,19 +5419,19 @@
         <v>315528</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>278627</v>
+        <v>279887</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>353167</v>
+        <v>353841</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08901809358796106</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07860739277128737</v>
+        <v>0.07896272088723456</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09963672340188601</v>
+        <v>0.09982690878313934</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>420</v>
@@ -5440,19 +5440,19 @@
         <v>468994</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>426209</v>
+        <v>428489</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>515048</v>
+        <v>511578</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06758914103988845</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0614232667102149</v>
+        <v>0.06175176471516139</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07422626316258248</v>
+        <v>0.07372612211163232</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>572104</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>550278</v>
+        <v>549363</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>590495</v>
+        <v>589211</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8282837632269476</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7966841647605085</v>
+        <v>0.7953604829150294</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8549106630649037</v>
+        <v>0.853050754348388</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>891</v>
@@ -5805,19 +5805,19 @@
         <v>570591</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>553044</v>
+        <v>553555</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>586353</v>
+        <v>586784</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7771815796113661</v>
+        <v>0.7771815796113662</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7532814409905049</v>
+        <v>0.7539776329128105</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7986500353615615</v>
+        <v>0.7992367511282071</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1473</v>
@@ -5826,19 +5826,19 @@
         <v>1142694</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1115175</v>
+        <v>1115903</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1169000</v>
+        <v>1166017</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8019531637046534</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7826401194673994</v>
+        <v>0.7831506773576518</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8204147068578029</v>
+        <v>0.818321273620406</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>74449</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>60160</v>
+        <v>60628</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>92976</v>
+        <v>92561</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1077856642416343</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08709916593206683</v>
+        <v>0.0877767334810468</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1346095363424777</v>
+        <v>0.1340085170451138</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>209</v>
@@ -5876,19 +5876,19 @@
         <v>98335</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>86140</v>
+        <v>85538</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>112374</v>
+        <v>112614</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.133938004392807</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1173286443701574</v>
+        <v>0.1165080747400668</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1530610409305301</v>
+        <v>0.1533868656787065</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>302</v>
@@ -5897,19 +5897,19 @@
         <v>172783</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>151273</v>
+        <v>153747</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>194312</v>
+        <v>193293</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1212607595579406</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1061646084083418</v>
+        <v>0.1079012953397687</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1363702279575872</v>
+        <v>0.1356545686315667</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>44157</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33452</v>
+        <v>33432</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57511</v>
+        <v>58106</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.0639305725314179</v>
+        <v>0.06393057253141789</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04843139350588743</v>
+        <v>0.04840179838005696</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08326409449744934</v>
+        <v>0.08412466517627282</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>141</v>
@@ -5947,19 +5947,19 @@
         <v>65254</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>54587</v>
+        <v>55446</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>76714</v>
+        <v>76685</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08888041599582673</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07435106868488424</v>
+        <v>0.07552031850661223</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1044891739291679</v>
+        <v>0.1044497073452666</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>196</v>
@@ -5968,19 +5968,19 @@
         <v>109412</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>94241</v>
+        <v>93400</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>127365</v>
+        <v>127915</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.07678607673740596</v>
+        <v>0.07678607673740594</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06613935122307282</v>
+        <v>0.06554880303015805</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08938613220705127</v>
+        <v>0.08977214039777778</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>923072</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>901132</v>
+        <v>898942</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>941961</v>
+        <v>941729</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8800234714758842</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8591065848896782</v>
+        <v>0.8570194097196916</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8980319512657159</v>
+        <v>0.8978109627900902</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1105</v>
@@ -6093,19 +6093,19 @@
         <v>831124</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>809905</v>
+        <v>809146</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>852907</v>
+        <v>850085</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7761433956107258</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7563281539372527</v>
+        <v>0.7556192081354363</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7964852705792537</v>
+        <v>0.7938499622439539</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1923</v>
@@ -6114,19 +6114,19 @@
         <v>1754195</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1725929</v>
+        <v>1723168</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1786932</v>
+        <v>1782161</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8275463093655002</v>
+        <v>0.8275463093655003</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8142113129241151</v>
+        <v>0.8129091865840525</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8429897848225411</v>
+        <v>0.8407392973086175</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>90803</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>74484</v>
+        <v>74405</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>111749</v>
+        <v>112351</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08656861317771357</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07101026577467988</v>
+        <v>0.07093481577208569</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1065377862799077</v>
+        <v>0.1071112600296637</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>276</v>
@@ -6164,19 +6164,19 @@
         <v>163143</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>143176</v>
+        <v>144386</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>182166</v>
+        <v>182012</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.152350601968617</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1337043845617267</v>
+        <v>0.134834909681379</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1701149446980104</v>
+        <v>0.1699714323461166</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>374</v>
@@ -6185,19 +6185,19 @@
         <v>253946</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>228947</v>
+        <v>228683</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>281504</v>
+        <v>280442</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1197997411006911</v>
+        <v>0.1197997411006912</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1080063307110721</v>
+        <v>0.1078820200537352</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1328001115816043</v>
+        <v>0.1322994631757699</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>35042</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25925</v>
+        <v>25771</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46592</v>
+        <v>47022</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03340791534640231</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02471565299835815</v>
+        <v>0.02456915311855934</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04441940861766952</v>
+        <v>0.04482896212700976</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>135</v>
@@ -6235,19 +6235,19 @@
         <v>76571</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>64238</v>
+        <v>65178</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90198</v>
+        <v>90434</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07150600242065734</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05998830624107246</v>
+        <v>0.06086666905736871</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0842312985540148</v>
+        <v>0.08445161771543822</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>183</v>
@@ -6256,19 +6256,19 @@
         <v>111613</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>94740</v>
+        <v>96350</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>126911</v>
+        <v>129929</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05265394953380862</v>
+        <v>0.05265394953380863</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04469384568469977</v>
+        <v>0.0454533470576879</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05987058613712234</v>
+        <v>0.06129449758029718</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>663474</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>638238</v>
+        <v>641939</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>684212</v>
+        <v>684409</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8270690105852898</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7956100083433333</v>
+        <v>0.8002243248470143</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8529204949704985</v>
+        <v>0.8531655447042039</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>775</v>
@@ -6381,19 +6381,19 @@
         <v>634183</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>614059</v>
+        <v>615010</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>651885</v>
+        <v>654152</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.7807639661341291</v>
+        <v>0.7807639661341292</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7559893690492622</v>
+        <v>0.7571595003430843</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8025577948721113</v>
+        <v>0.8053486075598985</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1308</v>
@@ -6402,19 +6402,19 @@
         <v>1297656</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1266257</v>
+        <v>1271379</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1327223</v>
+        <v>1327310</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8037722220701252</v>
+        <v>0.8037722220701253</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7843237434507576</v>
+        <v>0.7874961645420984</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8220861762947754</v>
+        <v>0.8221401528539215</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>104280</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>85122</v>
+        <v>85887</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>124444</v>
+        <v>123869</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1299928800893033</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1061110345107968</v>
+        <v>0.107064173870906</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1551286125519314</v>
+        <v>0.1544117728936601</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>187</v>
@@ -6452,19 +6452,19 @@
         <v>121962</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>106853</v>
+        <v>105588</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>140832</v>
+        <v>139380</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1501517463045345</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1315506047791807</v>
+        <v>0.1299929632976635</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1733827276296896</v>
+        <v>0.1715956913057611</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>294</v>
@@ -6473,19 +6473,19 @@
         <v>226242</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>201527</v>
+        <v>199815</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>252146</v>
+        <v>249487</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.140135119417398</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1248266092759276</v>
+        <v>0.1237662748782421</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1561802416739631</v>
+        <v>0.1545329012030771</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>34445</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>23625</v>
+        <v>24493</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48370</v>
+        <v>47590</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04293810932540695</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02945011300284671</v>
+        <v>0.03053182099333896</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06029727386471694</v>
+        <v>0.05932414771722149</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>85</v>
@@ -6523,19 +6523,19 @@
         <v>56114</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>44131</v>
+        <v>44881</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>68259</v>
+        <v>68856</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0690842875613363</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05433076616219556</v>
+        <v>0.055255051654853</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08403581901714471</v>
+        <v>0.08477055811254935</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>120</v>
@@ -6544,19 +6544,19 @@
         <v>90559</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>74317</v>
+        <v>76522</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>108504</v>
+        <v>109275</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.05609265851247667</v>
+        <v>0.05609265851247668</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04603197727807635</v>
+        <v>0.04739797941746544</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06720768729245473</v>
+        <v>0.06768548223253472</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>844169</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>820906</v>
+        <v>821441</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>863449</v>
+        <v>864038</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8526425799868792</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8291456194356852</v>
+        <v>0.8296863185825293</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.872116337299789</v>
+        <v>0.8727113606897404</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1118</v>
@@ -6669,19 +6669,19 @@
         <v>850009</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>825857</v>
+        <v>826830</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>874612</v>
+        <v>873300</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7599786054751804</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7383842229268326</v>
+        <v>0.7392538531385938</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7819755652842099</v>
+        <v>0.7808024427171122</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1932</v>
@@ -6690,19 +6690,19 @@
         <v>1694178</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1659582</v>
+        <v>1661690</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1725487</v>
+        <v>1728283</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8034891177856985</v>
+        <v>0.8034891177856983</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7870811121562448</v>
+        <v>0.7880808396382158</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8183376975338208</v>
+        <v>0.8196637659405499</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>97678</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>81074</v>
+        <v>80832</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>115912</v>
+        <v>117354</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09865893765478838</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08188757522435053</v>
+        <v>0.08164317696810143</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1170751418134835</v>
+        <v>0.1185315455561951</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>272</v>
@@ -6740,19 +6740,19 @@
         <v>160506</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>142294</v>
+        <v>141909</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>178762</v>
+        <v>180468</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1435053086526701</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1272228482095111</v>
+        <v>0.1268784051764976</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1598283737040599</v>
+        <v>0.1613532671527887</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>399</v>
@@ -6761,19 +6761,19 @@
         <v>258184</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>231594</v>
+        <v>233091</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>286721</v>
+        <v>285370</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1224476259052175</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1098369588672568</v>
+        <v>0.1105466416986908</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1359816025290509</v>
+        <v>0.135341024291452</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>48215</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37035</v>
+        <v>36822</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>61571</v>
+        <v>61457</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04869848235833237</v>
+        <v>0.04869848235833239</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03740636954107546</v>
+        <v>0.03719171347549745</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.062189370412061</v>
+        <v>0.06207349870307526</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>171</v>
@@ -6811,19 +6811,19 @@
         <v>107950</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>91651</v>
+        <v>91614</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>124062</v>
+        <v>124272</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09651608587214953</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08194325499654612</v>
+        <v>0.08191037424265564</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1109217392839432</v>
+        <v>0.1111097077027148</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>236</v>
@@ -6832,19 +6832,19 @@
         <v>156164</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>136003</v>
+        <v>136253</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>177570</v>
+        <v>176201</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.07406325630908414</v>
+        <v>0.07406325630908411</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06450146662448439</v>
+        <v>0.06461986784258683</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08421521491371482</v>
+        <v>0.08356568837633277</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>3002818</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2961634</v>
+        <v>2958846</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3042118</v>
+        <v>3044706</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8502020529395752</v>
+        <v>0.8502020529395753</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8385412169150178</v>
+        <v>0.8377520686197484</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8613292023699664</v>
+        <v>0.8620620023843347</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3889</v>
@@ -6957,19 +6957,19 @@
         <v>2885907</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2847397</v>
+        <v>2840487</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2927804</v>
+        <v>2929804</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7725124054938703</v>
+        <v>0.7725124054938702</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7622038061812495</v>
+        <v>0.7603541239252852</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.783727642019131</v>
+        <v>0.7842630508140062</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6636</v>
@@ -6978,19 +6978,19 @@
         <v>5888725</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5827149</v>
+        <v>5830206</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5944568</v>
+        <v>5947628</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8102676488930093</v>
+        <v>0.8102676488930094</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8017950488216441</v>
+        <v>0.8022157539618204</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8179514296387238</v>
+        <v>0.8183725228591318</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>367211</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>331383</v>
+        <v>336133</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>403154</v>
+        <v>404382</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1039700405089597</v>
+        <v>0.1039700405089596</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09382615029498892</v>
+        <v>0.09517100071469758</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1141469758861113</v>
+        <v>0.1144945084082329</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>944</v>
@@ -7028,19 +7028,19 @@
         <v>543945</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>511348</v>
+        <v>511111</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>578616</v>
+        <v>580933</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1456056630657861</v>
+        <v>0.145605663065786</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1368799053066969</v>
+        <v>0.136816475348721</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.154886412542166</v>
+        <v>0.1555068388472919</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1369</v>
@@ -7049,19 +7049,19 @@
         <v>911156</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>864512</v>
+        <v>860751</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>962442</v>
+        <v>958273</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1253717822928521</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1189537810104703</v>
+        <v>0.1184362282575096</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1324286258095256</v>
+        <v>0.1318550250696327</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>161859</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>141114</v>
+        <v>141299</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>189767</v>
+        <v>188128</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04582790655146515</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03995437459948622</v>
+        <v>0.04000677859848178</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05372963551679966</v>
+        <v>0.05326562618642845</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>532</v>
@@ -7099,19 +7099,19 @@
         <v>305890</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>281250</v>
+        <v>279921</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>334955</v>
+        <v>332815</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.08188193144034366</v>
+        <v>0.08188193144034364</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07528629903472694</v>
+        <v>0.07493044249202907</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08966227364521392</v>
+        <v>0.08908938031992641</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>735</v>
@@ -7120,19 +7120,19 @@
         <v>467749</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>431093</v>
+        <v>435605</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>500353</v>
+        <v>504576</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06436056881413851</v>
+        <v>0.06436056881413853</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05931687471088088</v>
+        <v>0.05993775795194784</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06884683392876538</v>
+        <v>0.06942788182608674</v>
       </c>
     </row>
     <row r="23">
